--- a/Extra/QueryComparisons.xlsx
+++ b/Extra/QueryComparisons.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jyrki\Documents\GitHub\LDAC2022_Dataset\Extra\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A094132-9021-48FE-B01F-C2F9B2B4B85A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC3EE8AA-4BF4-4B84-9A19-F38CFFF12D42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" xr2:uid="{814C8306-D283-4CA1-964E-4283804CA8D7}"/>
   </bookViews>
@@ -35,17 +35,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="56">
   <si>
     <t>Events</t>
   </si>
   <si>
-    <t>explanation A1</t>
-  </si>
-  <si>
-    <t>explanation A2</t>
-  </si>
-  <si>
     <t>A</t>
   </si>
   <si>
@@ -61,27 +55,6 @@
     <t>Approach</t>
   </si>
   <si>
-    <t>explanation B1</t>
-  </si>
-  <si>
-    <t>explanation B2</t>
-  </si>
-  <si>
-    <t>explanation C1</t>
-  </si>
-  <si>
-    <t>explanation C2</t>
-  </si>
-  <si>
-    <t>explanation D1</t>
-  </si>
-  <si>
-    <t>explanation D2</t>
-  </si>
-  <si>
-    <t>Current</t>
-  </si>
-  <si>
     <t>project:Topic_1 bcfOWL:hasTopicState ?o1 .</t>
   </si>
   <si>
@@ -145,28 +118,10 @@
     <t>?o3  bcfOWL:hasOperationType ?o4 . // CASE: direct object</t>
   </si>
   <si>
-    <t>Specific time</t>
-  </si>
-  <si>
     <t>?o3  bcfOWL:bcfOWL:hasLabel ?o5 . // CASE: Enumerated  Object Group</t>
   </si>
   <si>
     <t>?o3  bcfOWL:hasOperationType ?o6 . // CASE: Enumerated Object Group</t>
-  </si>
-  <si>
-    <t>Initial time</t>
-  </si>
-  <si>
-    <t>explanation A3</t>
-  </si>
-  <si>
-    <t>explanation B3</t>
-  </si>
-  <si>
-    <t>explanation C3</t>
-  </si>
-  <si>
-    <t>explanation D3</t>
   </si>
   <si>
     <t>project:Topic_1 bcfOWL:hasCreationAuthor ?o1 .</t>
@@ -299,7 +254,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -351,15 +306,6 @@
         <color auto="1"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -480,35 +426,35 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -823,10 +769,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E301BC51-C7D2-4337-AAD2-5DE1E86EF203}">
-  <dimension ref="A5:J90"/>
+  <dimension ref="A5:J54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -839,74 +785,192 @@
   </cols>
   <sheetData>
     <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B5" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>52</v>
+      </c>
       <c r="H5" s="1" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="25.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="19">
+        <v>57</v>
+      </c>
+      <c r="D6" s="19">
+        <v>31</v>
+      </c>
+      <c r="E6" s="19">
+        <v>35</v>
+      </c>
+      <c r="F6" s="20">
+        <v>53</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="34.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" s="13">
         <v>3</v>
       </c>
-      <c r="H6" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I6" s="2" t="s">
+      <c r="D7" s="13">
         <v>2</v>
       </c>
-      <c r="J6" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
+      <c r="E7" s="13">
         <v>4</v>
       </c>
+      <c r="F7" s="12">
+        <v>3</v>
+      </c>
       <c r="H7" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>5</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="20"/>
       <c r="H8" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="8" t="str">
+        <f>"- the current state"</f>
+        <v>- the current state</v>
+      </c>
+      <c r="C9" s="2">
+        <v>9</v>
+      </c>
+      <c r="D9" s="2">
         <v>6</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.45"/>
+      <c r="E9" s="2">
+        <v>6</v>
+      </c>
+      <c r="F9" s="9">
+        <v>6</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B10" s="8" t="str">
+        <f>"- state at a specific time"</f>
+        <v>- state at a specific time</v>
+      </c>
+      <c r="C10" s="2">
+        <v>9</v>
+      </c>
+      <c r="D10" s="2">
+        <v>6</v>
+      </c>
+      <c r="E10" s="2">
+        <v>6</v>
+      </c>
+      <c r="F10" s="9">
+        <v>6</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B11" s="10" t="str">
+        <f>"- state at initial time"</f>
+        <v>- state at initial time</v>
+      </c>
+      <c r="C11" s="3">
+        <v>6</v>
+      </c>
+      <c r="D11" s="3">
+        <v>3</v>
+      </c>
+      <c r="E11" s="3">
+        <v>4</v>
+      </c>
+      <c r="F11" s="11">
+        <v>5</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="J11" s="4"/>
+    </row>
     <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B13" s="22"/>
@@ -915,13 +979,13 @@
       <c r="E13" s="22"/>
       <c r="F13" s="22"/>
       <c r="H13" s="1" t="s">
-        <v>1</v>
+        <v>42</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -931,13 +995,13 @@
       <c r="E14" s="22"/>
       <c r="F14" s="22"/>
       <c r="H14" s="6" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -946,14 +1010,14 @@
       <c r="D15" s="22"/>
       <c r="E15" s="22"/>
       <c r="F15" s="22"/>
-      <c r="H15" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>44</v>
+      <c r="H15" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="J15" s="5" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -962,14 +1026,14 @@
       <c r="D16" s="22"/>
       <c r="E16" s="22"/>
       <c r="F16" s="22"/>
-      <c r="H16" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>45</v>
+      <c r="H16" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -978,14 +1042,14 @@
       <c r="D17" s="24"/>
       <c r="E17" s="24"/>
       <c r="F17" s="24"/>
-      <c r="H17" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>46</v>
+      <c r="H17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -994,15 +1058,13 @@
       <c r="D18" s="25"/>
       <c r="E18" s="25"/>
       <c r="F18" s="25"/>
-      <c r="H18" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J18" s="4" t="s">
-        <v>49</v>
-      </c>
+      <c r="H18" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J18" s="5"/>
     </row>
     <row r="19" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B19" s="25"/>
@@ -1010,13 +1072,13 @@
       <c r="D19" s="24"/>
       <c r="E19" s="24"/>
       <c r="F19" s="24"/>
-      <c r="H19" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="I19" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="J19" s="4"/>
+      <c r="H19" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J19" s="5"/>
     </row>
     <row r="20" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B20" s="26"/>
@@ -1024,6 +1086,9 @@
       <c r="D20" s="26"/>
       <c r="E20" s="26"/>
       <c r="F20" s="26"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
     </row>
     <row r="21" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B21" s="22"/>
@@ -1031,15 +1096,6 @@
       <c r="D21" s="22"/>
       <c r="E21" s="22"/>
       <c r="F21" s="22"/>
-      <c r="H21" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>41</v>
-      </c>
     </row>
     <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B22" s="22"/>
@@ -1047,243 +1103,164 @@
       <c r="D22" s="22"/>
       <c r="E22" s="22"/>
       <c r="F22" s="22"/>
-      <c r="H22" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="I22" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="J22" s="6" t="s">
+      <c r="H22" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J22" s="1" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="23" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H23" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I23" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="J23" s="5" t="s">
-        <v>19</v>
+      <c r="B23" s="22"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="22"/>
+      <c r="H23" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I23" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="J23" s="6" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B24" s="22"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
       <c r="H24" s="5" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="J24" s="5" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="2:10" ht="44.65" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C25" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="D25" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="E25" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="F25" s="16" t="s">
-        <v>67</v>
-      </c>
       <c r="H25" s="5" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="J25" s="5" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B26" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="C26" s="19">
-        <v>57</v>
-      </c>
-      <c r="D26" s="19">
-        <v>31</v>
-      </c>
-      <c r="E26" s="19">
-        <v>35</v>
-      </c>
-      <c r="F26" s="20">
-        <v>53</v>
-      </c>
       <c r="H26" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I26" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J26" s="5"/>
+        <v>16</v>
+      </c>
+      <c r="J26" s="5" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="27" spans="2:10" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B27" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="C27" s="13">
-        <v>3</v>
-      </c>
-      <c r="D27" s="13">
-        <v>2</v>
-      </c>
-      <c r="E27" s="13">
-        <v>4</v>
-      </c>
-      <c r="F27" s="12">
-        <v>3</v>
-      </c>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
-      <c r="J27" s="5"/>
+      <c r="H27" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I27" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="J27" s="5" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="28" spans="2:10" ht="31.9" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B28" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="C28" s="19"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="20"/>
       <c r="H28" s="5" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="J28" s="5"/>
     </row>
     <row r="29" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B29" s="8" t="str">
-        <f>"- the current state"</f>
-        <v>- the current state</v>
-      </c>
-      <c r="C29" s="2">
-        <v>9</v>
-      </c>
-      <c r="D29" s="2">
-        <v>6</v>
-      </c>
-      <c r="E29" s="2">
-        <v>6</v>
-      </c>
-      <c r="F29" s="9">
-        <v>6</v>
-      </c>
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
     </row>
     <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B30" s="8" t="str">
-        <f>"- state at a specific time"</f>
-        <v>- state at a specific time</v>
-      </c>
-      <c r="C30" s="2">
-        <v>9</v>
-      </c>
-      <c r="D30" s="2">
-        <v>6</v>
-      </c>
-      <c r="E30" s="2">
-        <v>6</v>
-      </c>
-      <c r="F30" s="9">
-        <v>6</v>
-      </c>
+      <c r="H30" s="7"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="7"/>
     </row>
     <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B31" s="10" t="str">
-        <f>"- state at initial time"</f>
-        <v>- state at initial time</v>
-      </c>
-      <c r="C31" s="3">
-        <v>6</v>
-      </c>
-      <c r="D31" s="3">
-        <v>3</v>
-      </c>
-      <c r="E31" s="3">
-        <v>4</v>
-      </c>
-      <c r="F31" s="11">
-        <v>5</v>
-      </c>
       <c r="H31" s="1" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
     </row>
     <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="H32" s="6" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="I32" s="6" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="J32" s="6" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
     </row>
     <row r="33" spans="8:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="H33" s="5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I33" s="5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J33" s="5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" spans="8:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="H34" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I34" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J34" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="35" spans="8:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="H35" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I35" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J35" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="36" spans="8:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="H36" s="5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I36" s="5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="J36" s="5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="37" spans="8:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -1293,120 +1270,76 @@
       <c r="I37" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="J37" s="5"/>
+      <c r="J37" s="5" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="38" spans="8:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H38" s="3"/>
-      <c r="I38" s="3"/>
-      <c r="J38" s="3"/>
+      <c r="H38" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I38" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J38" s="5"/>
     </row>
     <row r="39" spans="8:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H39" s="7"/>
-      <c r="I39" s="7"/>
-      <c r="J39" s="7"/>
+      <c r="H39" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I39" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="J39" s="5"/>
     </row>
     <row r="40" spans="8:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H40" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I40" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J40" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="41" spans="8:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H41" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="I41" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="J41" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
+      <c r="H40" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I40" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J40" s="3"/>
+    </row>
+    <row r="41" spans="8:10" ht="15" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="42" spans="8:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H42" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="I42" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="J42" s="5" t="s">
-        <v>30</v>
-      </c>
+      <c r="H42" s="5"/>
+      <c r="I42" s="5"/>
+      <c r="J42" s="5"/>
     </row>
     <row r="43" spans="8:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H43" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="I43" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="J43" s="5" t="s">
-        <v>31</v>
-      </c>
+      <c r="H43" s="5"/>
+      <c r="I43" s="5"/>
+      <c r="J43" s="5"/>
     </row>
     <row r="44" spans="8:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H44" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="I44" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="J44" s="5" t="s">
-        <v>32</v>
-      </c>
+      <c r="H44" s="5"/>
+      <c r="I44" s="5"/>
+      <c r="J44" s="5"/>
     </row>
     <row r="45" spans="8:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H45" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="I45" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="J45" s="5" t="s">
-        <v>33</v>
-      </c>
+      <c r="H45" s="5"/>
+      <c r="I45" s="5"/>
+      <c r="J45" s="5"/>
     </row>
     <row r="46" spans="8:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H46" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="I46" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="J46" s="5" t="s">
-        <v>49</v>
-      </c>
+      <c r="H46" s="5"/>
+      <c r="I46" s="5"/>
+      <c r="J46" s="5"/>
     </row>
     <row r="47" spans="8:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H47" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="I47" s="5" t="s">
-        <v>37</v>
-      </c>
+      <c r="H47" s="5"/>
+      <c r="I47" s="5"/>
       <c r="J47" s="5"/>
     </row>
     <row r="48" spans="8:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H48" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="I48" s="5" t="s">
-        <v>38</v>
-      </c>
+      <c r="H48" s="5"/>
+      <c r="I48" s="5"/>
       <c r="J48" s="5"/>
     </row>
     <row r="49" spans="8:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H49" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>48</v>
-      </c>
+      <c r="H49" s="3"/>
+      <c r="I49" s="3"/>
       <c r="J49" s="3"/>
     </row>
     <row r="50" spans="8:10" ht="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -1414,348 +1347,6 @@
     <row r="52" spans="8:10" ht="15" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="53" spans="8:10" ht="15" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="54" spans="8:10" ht="15" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="55" spans="8:10" x14ac:dyDescent="0.45">
-      <c r="H55" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="I55" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="J55" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="56" spans="8:10" x14ac:dyDescent="0.45">
-      <c r="H56" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="I56" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="J56" s="6" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="57" spans="8:10" x14ac:dyDescent="0.45">
-      <c r="H57" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I57" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J57" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="58" spans="8:10" x14ac:dyDescent="0.45">
-      <c r="H58" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I58" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J58" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="59" spans="8:10" x14ac:dyDescent="0.45">
-      <c r="H59" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I59" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J59" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="60" spans="8:10" x14ac:dyDescent="0.45">
-      <c r="H60" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I60" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J60" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="61" spans="8:10" x14ac:dyDescent="0.45">
-      <c r="H61" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="I61" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="J61" s="4"/>
-    </row>
-    <row r="63" spans="8:10" x14ac:dyDescent="0.45">
-      <c r="H63" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="I63" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="J63" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="64" spans="8:10" x14ac:dyDescent="0.45">
-      <c r="H64" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="I64" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="J64" s="6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="65" spans="8:10" x14ac:dyDescent="0.45">
-      <c r="H65" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I65" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="J65" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="66" spans="8:10" x14ac:dyDescent="0.45">
-      <c r="H66" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="I66" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="J66" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="67" spans="8:10" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="H67" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="I67" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="J67" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="68" spans="8:10" x14ac:dyDescent="0.45">
-      <c r="H68" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="I68" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J68" s="5"/>
-    </row>
-    <row r="69" spans="8:10" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="H69" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="I69" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="J69" s="5"/>
-    </row>
-    <row r="70" spans="8:10" x14ac:dyDescent="0.45">
-      <c r="H70" s="3"/>
-      <c r="I70" s="3"/>
-      <c r="J70" s="3"/>
-    </row>
-    <row r="72" spans="8:10" x14ac:dyDescent="0.45">
-      <c r="H72" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="I72" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="J72" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="73" spans="8:10" x14ac:dyDescent="0.45">
-      <c r="H73" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="I73" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="J73" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="74" spans="8:10" x14ac:dyDescent="0.45">
-      <c r="H74" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I74" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="J74" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="75" spans="8:10" x14ac:dyDescent="0.45">
-      <c r="H75" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="I75" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="J75" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="76" spans="8:10" x14ac:dyDescent="0.45">
-      <c r="H76" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="I76" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="J76" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="77" spans="8:10" x14ac:dyDescent="0.45">
-      <c r="H77" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="I77" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="J77" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="78" spans="8:10" x14ac:dyDescent="0.45">
-      <c r="H78" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I78" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="J78" s="5"/>
-    </row>
-    <row r="79" spans="8:10" x14ac:dyDescent="0.45">
-      <c r="H79" s="3"/>
-      <c r="I79" s="3"/>
-      <c r="J79" s="3"/>
-    </row>
-    <row r="80" spans="8:10" x14ac:dyDescent="0.45">
-      <c r="H80" s="7"/>
-      <c r="I80" s="7"/>
-      <c r="J80" s="7"/>
-    </row>
-    <row r="81" spans="8:10" x14ac:dyDescent="0.45">
-      <c r="H81" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="I81" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="J81" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="82" spans="8:10" x14ac:dyDescent="0.45">
-      <c r="H82" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="I82" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="J82" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="83" spans="8:10" x14ac:dyDescent="0.45">
-      <c r="H83" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="I83" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="J83" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="84" spans="8:10" x14ac:dyDescent="0.45">
-      <c r="H84" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="I84" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="J84" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="85" spans="8:10" x14ac:dyDescent="0.45">
-      <c r="H85" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="I85" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="J85" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="86" spans="8:10" x14ac:dyDescent="0.45">
-      <c r="H86" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="I86" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="J86" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="87" spans="8:10" x14ac:dyDescent="0.45">
-      <c r="H87" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="I87" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="J87" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="88" spans="8:10" x14ac:dyDescent="0.45">
-      <c r="H88" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="I88" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="J88" s="5"/>
-    </row>
-    <row r="89" spans="8:10" x14ac:dyDescent="0.45">
-      <c r="H89" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="I89" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="J89" s="5"/>
-    </row>
-    <row r="90" spans="8:10" x14ac:dyDescent="0.45">
-      <c r="H90" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I90" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="J90" s="3"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Extra/QueryComparisons.xlsx
+++ b/Extra/QueryComparisons.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jyrki\Documents\GitHub\LDAC2022_Dataset\Extra\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC3EE8AA-4BF4-4B84-9A19-F38CFFF12D42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F9E24FF-B1C0-430D-9950-C9210AE62BCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" xr2:uid="{814C8306-D283-4CA1-964E-4283804CA8D7}"/>
+    <workbookView xWindow="49665" yWindow="1260" windowWidth="28800" windowHeight="15105" xr2:uid="{814C8306-D283-4CA1-964E-4283804CA8D7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,23 +35,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="55">
   <si>
     <t>Events</t>
   </si>
   <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
     <t>Approach</t>
   </si>
   <si>
@@ -196,13 +184,22 @@
     <t>Annotations: Object Property Annotations</t>
   </si>
   <si>
-    <t>Triples in the data model</t>
-  </si>
-  <si>
     <t>SPARQL variables needed to query:</t>
   </si>
   <si>
     <t>Max. steps to a leaf   (RDF-star graphs reificated)</t>
+  </si>
+  <si>
+    <t>Initial triples in the data model</t>
+  </si>
+  <si>
+    <t>Triples added in the first update</t>
+  </si>
+  <si>
+    <t>Triples added in the final update</t>
+  </si>
+  <si>
+    <t>Triples at the end</t>
   </si>
 </sst>
 </file>
@@ -234,7 +231,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -245,12 +242,6 @@
       <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor theme="0" tint="-0.14999847407452621"/>
       </patternFill>
     </fill>
   </fills>
@@ -415,7 +406,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -451,10 +442,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -769,323 +763,327 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E301BC51-C7D2-4337-AAD2-5DE1E86EF203}">
-  <dimension ref="A5:J54"/>
+  <dimension ref="B5:J54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="B5" sqref="B5:F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="21.19921875" customWidth="1"/>
+    <col min="2" max="2" width="28" customWidth="1"/>
     <col min="3" max="6" width="15.59765625" customWidth="1"/>
     <col min="8" max="8" width="80.265625" customWidth="1"/>
     <col min="9" max="9" width="61.9296875" customWidth="1"/>
     <col min="10" max="10" width="74.53125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:10" ht="40.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B5" s="14" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C5" s="15" t="s">
         <v>0</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E5" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" ht="25.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B6" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="F5" s="16" t="s">
+      <c r="C6" s="19">
+        <v>29</v>
+      </c>
+      <c r="D6" s="19">
+        <v>14</v>
+      </c>
+      <c r="E6" s="19">
+        <v>21</v>
+      </c>
+      <c r="F6" s="20">
+        <v>24</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" ht="55.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B7" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="25.9" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="21" t="s">
+      <c r="C7" s="2">
+        <v>12</v>
+      </c>
+      <c r="D7" s="2">
+        <v>8</v>
+      </c>
+      <c r="E7" s="2">
+        <v>7</v>
+      </c>
+      <c r="F7" s="9">
+        <v>13</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B8" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="C6" s="19">
+      <c r="C8" s="2">
+        <v>15</v>
+      </c>
+      <c r="D8" s="2">
+        <v>9</v>
+      </c>
+      <c r="E8" s="2">
+        <v>7</v>
+      </c>
+      <c r="F8" s="9">
+        <v>17</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B9" s="8"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="9"/>
+      <c r="H9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B10" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" s="3">
         <v>57</v>
       </c>
-      <c r="D6" s="19">
+      <c r="D10" s="3">
         <v>31</v>
       </c>
-      <c r="E6" s="19">
+      <c r="E10" s="3">
         <v>35</v>
       </c>
-      <c r="F6" s="20">
-        <v>53</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="J6" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="34.9" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
+      <c r="F10" s="11">
+        <v>54</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B11" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="13">
+        <v>3</v>
+      </c>
+      <c r="D11" s="13">
         <v>2</v>
       </c>
-      <c r="B7" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="C7" s="13">
+      <c r="E11" s="13">
+        <v>4</v>
+      </c>
+      <c r="F11" s="12">
         <v>3</v>
       </c>
-      <c r="D7" s="13">
-        <v>2</v>
-      </c>
-      <c r="E7" s="13">
-        <v>4</v>
-      </c>
-      <c r="F7" s="12">
-        <v>3</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="20"/>
-      <c r="H8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="8" t="str">
+      <c r="H11" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="J11" s="4"/>
+    </row>
+    <row r="12" spans="2:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B12" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="20"/>
+    </row>
+    <row r="13" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B13" s="8" t="str">
         <f>"- the current state"</f>
         <v>- the current state</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C13" s="2">
         <v>9</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D13" s="2">
         <v>6</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E13" s="2">
         <v>6</v>
       </c>
-      <c r="F9" s="9">
+      <c r="F13" s="9">
         <v>6</v>
       </c>
-      <c r="H9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="8" t="str">
+      <c r="H13" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B14" s="8" t="str">
         <f>"- state at a specific time"</f>
         <v>- state at a specific time</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C14" s="2">
         <v>9</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D14" s="2">
         <v>6</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E14" s="2">
         <v>6</v>
       </c>
-      <c r="F10" s="9">
+      <c r="F14" s="9">
         <v>6</v>
       </c>
-      <c r="H10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J10" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="10" t="str">
+      <c r="H14" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B15" s="10" t="str">
         <f>"- state at initial time"</f>
         <v>- state at initial time</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C15" s="3">
         <v>6</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D15" s="3">
         <v>3</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E15" s="3">
         <v>4</v>
       </c>
-      <c r="F11" s="11">
+      <c r="F15" s="11">
         <v>5</v>
       </c>
-      <c r="H11" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="J11" s="4"/>
-    </row>
-    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B13" s="22"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22"/>
-      <c r="H13" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B14" s="22"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22"/>
-      <c r="H14" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I14" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="J14" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="23"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22"/>
       <c r="H15" s="5" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="22"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="22"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="H16" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B17" s="24"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24"/>
       <c r="H17" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="25"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
       <c r="H18" s="5" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="J18" s="5"/>
     </row>
     <row r="19" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="25"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="24"/>
       <c r="H19" s="5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="J19" s="5"/>
     </row>
     <row r="20" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="26"/>
-      <c r="C20" s="26"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="26"/>
-      <c r="F20" s="26"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
@@ -1104,13 +1102,13 @@
       <c r="E22" s="22"/>
       <c r="F22" s="22"/>
       <c r="H22" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -1120,13 +1118,13 @@
       <c r="E23" s="22"/>
       <c r="F23" s="22"/>
       <c r="H23" s="6" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I23" s="6" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J23" s="6" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -1136,54 +1134,54 @@
       <c r="E24" s="22"/>
       <c r="F24" s="22"/>
       <c r="H24" s="5" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J24" s="5" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="2:10" ht="44.65" customHeight="1" x14ac:dyDescent="0.45">
       <c r="H25" s="5" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="J25" s="5" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="H26" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I26" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="J26" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" spans="2:10" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="H27" s="5" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="J27" s="5" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28" spans="2:10" ht="31.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="H28" s="5" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="J28" s="5"/>
     </row>
@@ -1199,105 +1197,105 @@
     </row>
     <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="H31" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="H32" s="6" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="I32" s="6" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="J32" s="6" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33" spans="8:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="H33" s="5" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="I33" s="5" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="J33" s="5" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="34" spans="8:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="H34" s="5" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I34" s="5" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="J34" s="5" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35" spans="8:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="H35" s="5" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="I35" s="5" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="J35" s="5" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="36" spans="8:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="H36" s="5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="I36" s="5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="J36" s="5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" spans="8:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="H37" s="5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I37" s="5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="J37" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="38" spans="8:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="H38" s="5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I38" s="5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="J38" s="5"/>
     </row>
     <row r="39" spans="8:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="H39" s="5" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I39" s="5" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="J39" s="5"/>
     </row>
     <row r="40" spans="8:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="H40" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="J40" s="3"/>
     </row>

--- a/Extra/QueryComparisons.xlsx
+++ b/Extra/QueryComparisons.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jyrki\Documents\GitHub\LDAC2022_Dataset\Extra\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F9E24FF-B1C0-430D-9950-C9210AE62BCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EB31F9B-87E6-44BF-A0C2-29253351A2D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="49665" yWindow="1260" windowWidth="28800" windowHeight="15105" xr2:uid="{814C8306-D283-4CA1-964E-4283804CA8D7}"/>
+    <workbookView xWindow="43080" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{814C8306-D283-4CA1-964E-4283804CA8D7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="62">
   <si>
     <t>Events</t>
   </si>
@@ -187,9 +187,6 @@
     <t>SPARQL variables needed to query:</t>
   </si>
   <si>
-    <t>Max. steps to a leaf   (RDF-star graphs reificated)</t>
-  </si>
-  <si>
     <t>Initial triples in the data model</t>
   </si>
   <si>
@@ -200,6 +197,30 @@
   </si>
   <si>
     <t>Triples at the end</t>
+  </si>
+  <si>
+    <t>Final graph: the average degree</t>
+  </si>
+  <si>
+    <t>Final graph: diameter</t>
+  </si>
+  <si>
+    <t>Initial graph: diameter</t>
+  </si>
+  <si>
+    <t>Final graph:  density</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Initial graph: the average clustering coefficient  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Final graph: the average clustering coefficient  </t>
+  </si>
+  <si>
+    <t>Final graph:  the deviation of the average degree</t>
+  </si>
+  <si>
+    <t>Max. steps to a leaf. UnweightedEccentricity for a topic.</t>
   </si>
 </sst>
 </file>
@@ -406,7 +427,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -442,11 +463,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -766,13 +796,14 @@
   <dimension ref="B5:J54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:F15"/>
+      <selection activeCell="B5" sqref="B5:F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="28" customWidth="1"/>
-    <col min="3" max="6" width="15.59765625" customWidth="1"/>
+    <col min="2" max="2" width="30.9296875" customWidth="1"/>
+    <col min="3" max="4" width="10.59765625" customWidth="1"/>
+    <col min="5" max="6" width="15.59765625" customWidth="1"/>
     <col min="8" max="8" width="80.265625" customWidth="1"/>
     <col min="9" max="9" width="61.9296875" customWidth="1"/>
     <col min="10" max="10" width="74.53125" customWidth="1"/>
@@ -804,9 +835,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="2:10" ht="25.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B6" s="21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C6" s="19">
         <v>29</v>
@@ -830,9 +861,9 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="2:10" ht="55.9" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="24" t="s">
-        <v>52</v>
+    <row r="7" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B7" s="23" t="s">
+        <v>51</v>
       </c>
       <c r="C7" s="2">
         <v>12</v>
@@ -856,9 +887,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B8" s="24" t="s">
-        <v>53</v>
+    <row r="8" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B8" s="23" t="s">
+        <v>52</v>
       </c>
       <c r="C8" s="2">
         <v>15</v>
@@ -882,7 +913,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B9" s="8"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
@@ -899,8 +930,8 @@
       </c>
     </row>
     <row r="10" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="25" t="s">
-        <v>54</v>
+      <c r="B10" s="24" t="s">
+        <v>53</v>
       </c>
       <c r="C10" s="3">
         <v>57</v>
@@ -924,9 +955,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="2:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B11" s="17" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="C11" s="13">
         <v>3</v>
@@ -935,7 +966,7 @@
         <v>2</v>
       </c>
       <c r="E11" s="13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F11" s="12">
         <v>3</v>
@@ -948,159 +979,249 @@
       </c>
       <c r="J11" s="4"/>
     </row>
-    <row r="12" spans="2:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B12" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" s="19">
+        <v>4</v>
+      </c>
+      <c r="D12" s="19">
+        <v>3</v>
+      </c>
+      <c r="E12" s="19">
+        <v>4</v>
+      </c>
+      <c r="F12" s="20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B13" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" s="2">
+        <v>6</v>
+      </c>
+      <c r="D13" s="2">
+        <v>4</v>
+      </c>
+      <c r="E13" s="2">
+        <v>5</v>
+      </c>
+      <c r="F13" s="9">
+        <v>5</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B14" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" s="19">
+        <v>2.77</v>
+      </c>
+      <c r="D14" s="19">
+        <v>3.18</v>
+      </c>
+      <c r="E14" s="19">
+        <v>3.11</v>
+      </c>
+      <c r="F14" s="20">
+        <v>3.43</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B15" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" s="2">
+        <v>1.75</v>
+      </c>
+      <c r="D15" s="2">
+        <v>2.96</v>
+      </c>
+      <c r="E15" s="2">
+        <v>3.03</v>
+      </c>
+      <c r="F15" s="9">
+        <v>2.65</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="J15" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B16" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" s="28">
+        <v>0.09</v>
+      </c>
+      <c r="D16" s="28">
+        <v>0.2</v>
+      </c>
+      <c r="E16" s="28">
+        <v>0.09</v>
+      </c>
+      <c r="F16" s="29">
+        <v>0.1</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B17" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17" s="27">
+        <v>0.13</v>
+      </c>
+      <c r="D17" s="19">
+        <v>0.44</v>
+      </c>
+      <c r="E17" s="19">
+        <v>0</v>
+      </c>
+      <c r="F17" s="20">
+        <v>0</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" ht="29.35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B18" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" s="4">
+        <v>0.06</v>
+      </c>
+      <c r="D18" s="3">
+        <v>0.22</v>
+      </c>
+      <c r="E18" s="3">
+        <v>0</v>
+      </c>
+      <c r="F18" s="11">
+        <v>0</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J18" s="5"/>
+    </row>
+    <row r="19" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B19" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="20"/>
-    </row>
-    <row r="13" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B13" s="8" t="str">
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="20"/>
+      <c r="H19" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J19" s="5"/>
+    </row>
+    <row r="20" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B20" s="8" t="str">
         <f>"- the current state"</f>
         <v>- the current state</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C20" s="2">
         <v>9</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D20" s="2">
         <v>6</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E20" s="2">
         <v>6</v>
       </c>
-      <c r="F13" s="9">
+      <c r="F20" s="9">
         <v>6</v>
       </c>
-      <c r="H13" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B14" s="8" t="str">
-        <f>"- state at a specific time"</f>
-        <v>- state at a specific time</v>
-      </c>
-      <c r="C14" s="2">
-        <v>9</v>
-      </c>
-      <c r="D14" s="2">
-        <v>6</v>
-      </c>
-      <c r="E14" s="2">
-        <v>6</v>
-      </c>
-      <c r="F14" s="9">
-        <v>6</v>
-      </c>
-      <c r="H14" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="I14" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="J14" s="6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="2:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="10" t="str">
-        <f>"- state at initial time"</f>
-        <v>- state at initial time</v>
-      </c>
-      <c r="C15" s="3">
-        <v>6</v>
-      </c>
-      <c r="D15" s="3">
-        <v>3</v>
-      </c>
-      <c r="E15" s="3">
-        <v>4</v>
-      </c>
-      <c r="F15" s="11">
-        <v>5</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I15" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="J15" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H16" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="I16" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="J16" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H17" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I17" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="J17" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H18" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I18" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="J18" s="5"/>
-    </row>
-    <row r="19" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H19" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I19" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="J19" s="5"/>
-    </row>
-    <row r="20" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="23"/>
-      <c r="C20" s="23"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="23"/>
-      <c r="F20" s="23"/>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
     </row>
     <row r="21" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B21" s="22"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="22"/>
-      <c r="F21" s="22"/>
+      <c r="B21" s="8" t="str">
+        <f>"- state at a specific time"</f>
+        <v>- state at a specific time</v>
+      </c>
+      <c r="C21" s="2">
+        <v>9</v>
+      </c>
+      <c r="D21" s="2">
+        <v>6</v>
+      </c>
+      <c r="E21" s="2">
+        <v>6</v>
+      </c>
+      <c r="F21" s="9">
+        <v>6</v>
+      </c>
     </row>
     <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B22" s="22"/>
-      <c r="C22" s="22"/>
-      <c r="D22" s="22"/>
-      <c r="E22" s="22"/>
-      <c r="F22" s="22"/>
+      <c r="B22" s="10" t="str">
+        <f>"- state at initial time"</f>
+        <v>- state at initial time</v>
+      </c>
+      <c r="C22" s="3">
+        <v>6</v>
+      </c>
+      <c r="D22" s="3">
+        <v>3</v>
+      </c>
+      <c r="E22" s="3">
+        <v>4</v>
+      </c>
+      <c r="F22" s="11">
+        <v>5</v>
+      </c>
       <c r="H22" s="1" t="s">
         <v>41</v>
       </c>
@@ -1112,11 +1233,11 @@
       </c>
     </row>
     <row r="23" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="22"/>
-      <c r="C23" s="22"/>
-      <c r="D23" s="22"/>
-      <c r="E23" s="22"/>
-      <c r="F23" s="22"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="26"/>
       <c r="H23" s="6" t="s">
         <v>10</v>
       </c>

--- a/Extra/QueryComparisons.xlsx
+++ b/Extra/QueryComparisons.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jyrki\Documents\GitHub\LDAC2022_Dataset\Extra\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EB31F9B-87E6-44BF-A0C2-29253351A2D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC03DBD4-8FE4-45C5-B546-B2D0DFFB8752}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="43080" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{814C8306-D283-4CA1-964E-4283804CA8D7}"/>
+    <workbookView xWindow="-1778" yWindow="1418" windowWidth="21585" windowHeight="13664" xr2:uid="{814C8306-D283-4CA1-964E-4283804CA8D7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="62">
   <si>
     <t>Events</t>
   </si>
@@ -427,7 +427,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -479,6 +479,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -795,8 +800,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E301BC51-C7D2-4337-AAD2-5DE1E86EF203}">
   <dimension ref="B5:J54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:F22"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36:F47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1010,7 +1015,7 @@
         <v>5</v>
       </c>
       <c r="F13" s="9">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>38</v>
@@ -1027,16 +1032,16 @@
         <v>54</v>
       </c>
       <c r="C14" s="19">
-        <v>2.77</v>
+        <v>2.69</v>
       </c>
       <c r="D14" s="19">
-        <v>3.18</v>
+        <v>2.7</v>
       </c>
       <c r="E14" s="19">
-        <v>3.11</v>
+        <v>2.4300000000000002</v>
       </c>
       <c r="F14" s="20">
-        <v>3.43</v>
+        <v>2.79</v>
       </c>
       <c r="H14" s="6" t="s">
         <v>10</v>
@@ -1053,16 +1058,16 @@
         <v>60</v>
       </c>
       <c r="C15" s="2">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="D15" s="2">
-        <v>2.96</v>
+        <v>2.88</v>
       </c>
       <c r="E15" s="2">
-        <v>3.03</v>
+        <v>2.76</v>
       </c>
       <c r="F15" s="9">
-        <v>2.65</v>
+        <v>2.6</v>
       </c>
       <c r="H15" s="5" t="s">
         <v>6</v>
@@ -1082,13 +1087,13 @@
         <v>0.09</v>
       </c>
       <c r="D16" s="28">
-        <v>0.2</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="E16" s="28">
-        <v>0.09</v>
+        <v>0.05</v>
       </c>
       <c r="F16" s="29">
-        <v>0.1</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="H16" s="5" t="s">
         <v>8</v>
@@ -1105,10 +1110,10 @@
         <v>58</v>
       </c>
       <c r="C17" s="27">
-        <v>0.13</v>
+        <v>0.06</v>
       </c>
       <c r="D17" s="19">
-        <v>0.44</v>
+        <v>0.2</v>
       </c>
       <c r="E17" s="19">
         <v>0</v>
@@ -1131,10 +1136,10 @@
         <v>59</v>
       </c>
       <c r="C18" s="4">
-        <v>0.06</v>
+        <v>2.7E-2</v>
       </c>
       <c r="D18" s="3">
-        <v>0.22</v>
+        <v>0.08</v>
       </c>
       <c r="E18" s="3">
         <v>0</v>
@@ -1338,7 +1343,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="8:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="H33" s="5" t="s">
         <v>17</v>
       </c>
@@ -1349,7 +1354,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="34" spans="8:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="H34" s="5" t="s">
         <v>18</v>
       </c>
@@ -1360,7 +1365,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="35" spans="8:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="H35" s="5" t="s">
         <v>19</v>
       </c>
@@ -1371,7 +1376,22 @@
         <v>19</v>
       </c>
     </row>
-    <row r="36" spans="8:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B36" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C36" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="D36" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="E36" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="F36" s="16" t="s">
+        <v>48</v>
+      </c>
       <c r="H36" s="5" t="s">
         <v>20</v>
       </c>
@@ -1382,7 +1402,22 @@
         <v>20</v>
       </c>
     </row>
-    <row r="37" spans="8:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B37" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="C37" s="19">
+        <v>29</v>
+      </c>
+      <c r="D37" s="19">
+        <v>14</v>
+      </c>
+      <c r="E37" s="19">
+        <v>21</v>
+      </c>
+      <c r="F37" s="20">
+        <v>24</v>
+      </c>
       <c r="H37" s="5" t="s">
         <v>22</v>
       </c>
@@ -1393,7 +1428,22 @@
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="8:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B38" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="C38" s="2">
+        <v>12</v>
+      </c>
+      <c r="D38" s="2">
+        <v>8</v>
+      </c>
+      <c r="E38" s="2">
+        <v>7</v>
+      </c>
+      <c r="F38" s="9">
+        <v>13</v>
+      </c>
       <c r="H38" s="5" t="s">
         <v>23</v>
       </c>
@@ -1402,7 +1452,22 @@
       </c>
       <c r="J38" s="5"/>
     </row>
-    <row r="39" spans="8:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B39" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="C39" s="2">
+        <v>15</v>
+      </c>
+      <c r="D39" s="2">
+        <v>9</v>
+      </c>
+      <c r="E39" s="2">
+        <v>7</v>
+      </c>
+      <c r="F39" s="9">
+        <v>17</v>
+      </c>
       <c r="H39" s="5" t="s">
         <v>24</v>
       </c>
@@ -1411,7 +1476,22 @@
       </c>
       <c r="J39" s="5"/>
     </row>
-    <row r="40" spans="8:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B40" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="C40" s="3">
+        <v>57</v>
+      </c>
+      <c r="D40" s="3">
+        <v>31</v>
+      </c>
+      <c r="E40" s="3">
+        <v>35</v>
+      </c>
+      <c r="F40" s="11">
+        <v>54</v>
+      </c>
       <c r="H40" s="3" t="s">
         <v>29</v>
       </c>
@@ -1420,52 +1500,169 @@
       </c>
       <c r="J40" s="3"/>
     </row>
-    <row r="41" spans="8:10" ht="15" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="42" spans="8:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="2:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B41" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="C41" s="13">
+        <v>3</v>
+      </c>
+      <c r="D41" s="13">
+        <v>2</v>
+      </c>
+      <c r="E41" s="13">
+        <v>3</v>
+      </c>
+      <c r="F41" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B42" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="C42" s="19">
+        <v>4</v>
+      </c>
+      <c r="D42" s="19">
+        <v>3</v>
+      </c>
+      <c r="E42" s="19">
+        <v>4</v>
+      </c>
+      <c r="F42" s="20">
+        <v>4</v>
+      </c>
       <c r="H42" s="5"/>
       <c r="I42" s="5"/>
       <c r="J42" s="5"/>
     </row>
-    <row r="43" spans="8:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B43" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C43" s="2">
+        <v>6</v>
+      </c>
+      <c r="D43" s="2">
+        <v>4</v>
+      </c>
+      <c r="E43" s="2">
+        <v>5</v>
+      </c>
+      <c r="F43" s="9">
+        <v>6</v>
+      </c>
       <c r="H43" s="5"/>
       <c r="I43" s="5"/>
       <c r="J43" s="5"/>
     </row>
-    <row r="44" spans="8:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B44" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="C44" s="19"/>
+      <c r="D44" s="19"/>
+      <c r="E44" s="19"/>
+      <c r="F44" s="20"/>
       <c r="H44" s="5"/>
       <c r="I44" s="5"/>
       <c r="J44" s="5"/>
     </row>
-    <row r="45" spans="8:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B45" s="8" t="str">
+        <f>"- the current state"</f>
+        <v>- the current state</v>
+      </c>
+      <c r="C45" s="2">
+        <v>9</v>
+      </c>
+      <c r="D45" s="2">
+        <v>6</v>
+      </c>
+      <c r="E45" s="2">
+        <v>6</v>
+      </c>
+      <c r="F45" s="9">
+        <v>6</v>
+      </c>
       <c r="H45" s="5"/>
       <c r="I45" s="5"/>
       <c r="J45" s="5"/>
     </row>
-    <row r="46" spans="8:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B46" s="8" t="str">
+        <f>"- state at a specific time"</f>
+        <v>- state at a specific time</v>
+      </c>
+      <c r="C46" s="2">
+        <v>9</v>
+      </c>
+      <c r="D46" s="2">
+        <v>6</v>
+      </c>
+      <c r="E46" s="2">
+        <v>6</v>
+      </c>
+      <c r="F46" s="9">
+        <v>6</v>
+      </c>
       <c r="H46" s="5"/>
       <c r="I46" s="5"/>
       <c r="J46" s="5"/>
     </row>
-    <row r="47" spans="8:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B47" s="10" t="str">
+        <f>"- state at initial time"</f>
+        <v>- state at initial time</v>
+      </c>
+      <c r="C47" s="3">
+        <v>6</v>
+      </c>
+      <c r="D47" s="3">
+        <v>3</v>
+      </c>
+      <c r="E47" s="3">
+        <v>4</v>
+      </c>
+      <c r="F47" s="11">
+        <v>5</v>
+      </c>
       <c r="H47" s="5"/>
       <c r="I47" s="5"/>
       <c r="J47" s="5"/>
     </row>
-    <row r="48" spans="8:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B48" s="26"/>
+      <c r="C48" s="26"/>
+      <c r="D48" s="26"/>
+      <c r="E48" s="26"/>
+      <c r="F48" s="26"/>
       <c r="H48" s="5"/>
       <c r="I48" s="5"/>
       <c r="J48" s="5"/>
     </row>
-    <row r="49" spans="8:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="49" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B49" s="32"/>
+      <c r="C49" s="33"/>
+      <c r="D49" s="31"/>
+      <c r="E49" s="31"/>
+      <c r="F49" s="31"/>
       <c r="H49" s="3"/>
       <c r="I49" s="3"/>
       <c r="J49" s="3"/>
     </row>
-    <row r="50" spans="8:10" ht="15" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="51" spans="8:10" ht="15" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="52" spans="8:10" ht="15" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="53" spans="8:10" ht="15" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="54" spans="8:10" ht="15" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="50" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B50" s="31"/>
+      <c r="C50" s="31"/>
+      <c r="D50" s="31"/>
+      <c r="E50" s="31"/>
+      <c r="F50" s="31"/>
+    </row>
+    <row r="51" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="52" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="53" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="54" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Extra/QueryComparisons.xlsx
+++ b/Extra/QueryComparisons.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jyrki\Documents\GitHub\LDAC2022_Dataset\Extra\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC03DBD4-8FE4-45C5-B546-B2D0DFFB8752}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DB7E14E-96E4-465D-8F9F-241058B6114C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-1778" yWindow="1418" windowWidth="21585" windowHeight="13664" xr2:uid="{814C8306-D283-4CA1-964E-4283804CA8D7}"/>
+    <workbookView xWindow="43080" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{814C8306-D283-4CA1-964E-4283804CA8D7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="67">
   <si>
     <t>Events</t>
   </si>
@@ -221,13 +221,28 @@
   </si>
   <si>
     <t>Max. steps to a leaf. UnweightedEccentricity for a topic.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Triples at the end when modification steps combined </t>
+  </si>
+  <si>
+    <t>Final graph: reified model diameter</t>
+  </si>
+  <si>
+    <t>Final graph: connected components Model not reified</t>
+  </si>
+  <si>
+    <t>Max. steps to a leaf. Reified model UnweightedEccentricity for a topic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Initial graph: reified model diameter </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -247,6 +262,22 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF00B0F0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -427,7 +458,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -480,10 +511,16 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -800,8 +837,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E301BC51-C7D2-4337-AAD2-5DE1E86EF203}">
   <dimension ref="B5:J54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36:F47"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36:F49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1376,7 +1413,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="36" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="2:10" ht="44.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B36" s="14" t="s">
         <v>1</v>
       </c>
@@ -1409,7 +1446,7 @@
       <c r="C37" s="19">
         <v>29</v>
       </c>
-      <c r="D37" s="19">
+      <c r="D37" s="37">
         <v>14</v>
       </c>
       <c r="E37" s="19">
@@ -1435,10 +1472,10 @@
       <c r="C38" s="2">
         <v>12</v>
       </c>
-      <c r="D38" s="2">
+      <c r="D38" s="38">
         <v>8</v>
       </c>
-      <c r="E38" s="2">
+      <c r="E38" s="38">
         <v>7</v>
       </c>
       <c r="F38" s="9">
@@ -1459,10 +1496,10 @@
       <c r="C39" s="2">
         <v>15</v>
       </c>
-      <c r="D39" s="2">
+      <c r="D39" s="38">
         <v>9</v>
       </c>
-      <c r="E39" s="2">
+      <c r="E39" s="38">
         <v>7</v>
       </c>
       <c r="F39" s="9">
@@ -1480,16 +1517,16 @@
       <c r="B40" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="C40" s="3">
+      <c r="C40" s="34">
         <v>57</v>
       </c>
-      <c r="D40" s="3">
+      <c r="D40" s="35">
         <v>31</v>
       </c>
-      <c r="E40" s="3">
+      <c r="E40" s="35">
         <v>35</v>
       </c>
-      <c r="F40" s="11">
+      <c r="F40" s="40">
         <v>54</v>
       </c>
       <c r="H40" s="3" t="s">
@@ -1501,153 +1538,173 @@
       <c r="J40" s="3"/>
     </row>
     <row r="41" spans="2:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B41" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="C41" s="13">
+      <c r="B41" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="C41" s="32">
+        <v>46</v>
+      </c>
+      <c r="D41" s="32">
+        <v>23</v>
+      </c>
+      <c r="E41" s="32">
+        <v>35</v>
+      </c>
+      <c r="F41" s="33">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="42" spans="2:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B42" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="C42" s="13">
         <v>3</v>
       </c>
-      <c r="D41" s="13">
+      <c r="D42" s="36">
         <v>2</v>
       </c>
-      <c r="E41" s="13">
+      <c r="E42" s="13">
         <v>3</v>
       </c>
-      <c r="F41" s="12">
+      <c r="F42" s="12">
         <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B42" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="C42" s="19">
-        <v>4</v>
-      </c>
-      <c r="D42" s="19">
-        <v>3</v>
-      </c>
-      <c r="E42" s="19">
-        <v>4</v>
-      </c>
-      <c r="F42" s="20">
-        <v>4</v>
       </c>
       <c r="H42" s="5"/>
       <c r="I42" s="5"/>
       <c r="J42" s="5"/>
     </row>
     <row r="43" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B43" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="C43" s="2">
-        <v>6</v>
-      </c>
-      <c r="D43" s="2">
+      <c r="B43" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="C43" s="19">
         <v>4</v>
       </c>
-      <c r="E43" s="2">
-        <v>5</v>
-      </c>
-      <c r="F43" s="9">
-        <v>6</v>
+      <c r="D43" s="37">
+        <v>3</v>
+      </c>
+      <c r="E43" s="19">
+        <v>4</v>
+      </c>
+      <c r="F43" s="20">
+        <v>4</v>
       </c>
       <c r="H43" s="5"/>
       <c r="I43" s="5"/>
       <c r="J43" s="5"/>
     </row>
     <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B44" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="C44" s="19"/>
-      <c r="D44" s="19"/>
-      <c r="E44" s="19"/>
-      <c r="F44" s="20"/>
+      <c r="B44" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C44" s="39">
+        <v>6</v>
+      </c>
+      <c r="D44" s="38">
+        <v>4</v>
+      </c>
+      <c r="E44" s="2">
+        <v>5</v>
+      </c>
+      <c r="F44" s="41">
+        <v>6</v>
+      </c>
       <c r="H44" s="5"/>
       <c r="I44" s="5"/>
       <c r="J44" s="5"/>
     </row>
-    <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B45" s="8" t="str">
-        <f>"- the current state"</f>
-        <v>- the current state</v>
-      </c>
-      <c r="C45" s="2">
-        <v>9</v>
-      </c>
-      <c r="D45" s="2">
-        <v>6</v>
-      </c>
-      <c r="E45" s="2">
-        <v>6</v>
-      </c>
-      <c r="F45" s="9">
-        <v>6</v>
+    <row r="45" spans="2:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B45" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="C45" s="36">
+        <v>1</v>
+      </c>
+      <c r="D45" s="36">
+        <v>1</v>
+      </c>
+      <c r="E45" s="13">
+        <v>23</v>
+      </c>
+      <c r="F45" s="12">
+        <v>8</v>
       </c>
       <c r="H45" s="5"/>
       <c r="I45" s="5"/>
       <c r="J45" s="5"/>
     </row>
     <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B46" s="8" t="str">
-        <f>"- state at a specific time"</f>
-        <v>- state at a specific time</v>
-      </c>
-      <c r="C46" s="2">
-        <v>9</v>
-      </c>
-      <c r="D46" s="2">
-        <v>6</v>
-      </c>
-      <c r="E46" s="2">
-        <v>6</v>
-      </c>
-      <c r="F46" s="9">
-        <v>6</v>
-      </c>
+      <c r="B46" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="C46" s="19"/>
+      <c r="D46" s="19"/>
+      <c r="E46" s="19"/>
+      <c r="F46" s="20"/>
       <c r="H46" s="5"/>
       <c r="I46" s="5"/>
       <c r="J46" s="5"/>
     </row>
     <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B47" s="10" t="str">
-        <f>"- state at initial time"</f>
-        <v>- state at initial time</v>
-      </c>
-      <c r="C47" s="3">
-        <v>6</v>
-      </c>
-      <c r="D47" s="3">
-        <v>3</v>
-      </c>
-      <c r="E47" s="3">
-        <v>4</v>
-      </c>
-      <c r="F47" s="11">
-        <v>5</v>
+      <c r="B47" s="8" t="str">
+        <f>"- the current state"</f>
+        <v>- the current state</v>
+      </c>
+      <c r="C47" s="39">
+        <v>9</v>
+      </c>
+      <c r="D47" s="2">
+        <v>6</v>
+      </c>
+      <c r="E47" s="2">
+        <v>6</v>
+      </c>
+      <c r="F47" s="9">
+        <v>6</v>
       </c>
       <c r="H47" s="5"/>
       <c r="I47" s="5"/>
       <c r="J47" s="5"/>
     </row>
     <row r="48" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B48" s="26"/>
-      <c r="C48" s="26"/>
-      <c r="D48" s="26"/>
-      <c r="E48" s="26"/>
-      <c r="F48" s="26"/>
+      <c r="B48" s="8" t="str">
+        <f>"- state at a specific time"</f>
+        <v>- state at a specific time</v>
+      </c>
+      <c r="C48" s="39">
+        <v>9</v>
+      </c>
+      <c r="D48" s="2">
+        <v>6</v>
+      </c>
+      <c r="E48" s="2">
+        <v>6</v>
+      </c>
+      <c r="F48" s="9">
+        <v>6</v>
+      </c>
       <c r="H48" s="5"/>
       <c r="I48" s="5"/>
       <c r="J48" s="5"/>
     </row>
     <row r="49" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B49" s="32"/>
-      <c r="C49" s="33"/>
-      <c r="D49" s="31"/>
-      <c r="E49" s="31"/>
-      <c r="F49" s="31"/>
+      <c r="B49" s="10" t="str">
+        <f>"- state at initial time"</f>
+        <v>- state at initial time</v>
+      </c>
+      <c r="C49" s="3">
+        <v>6</v>
+      </c>
+      <c r="D49" s="35">
+        <v>3</v>
+      </c>
+      <c r="E49" s="35">
+        <v>4</v>
+      </c>
+      <c r="F49" s="11">
+        <v>5</v>
+      </c>
       <c r="H49" s="3"/>
       <c r="I49" s="3"/>
       <c r="J49" s="3"/>

--- a/Extra/QueryComparisons.xlsx
+++ b/Extra/QueryComparisons.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jyrki\Documents\GitHub\LDAC2022_Dataset\Extra\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DB7E14E-96E4-465D-8F9F-241058B6114C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CB84B3A-FEAB-49DA-8258-5E550D294730}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="43080" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{814C8306-D283-4CA1-964E-4283804CA8D7}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="68">
   <si>
     <t>Events</t>
   </si>
@@ -236,6 +236,50 @@
   </si>
   <si>
     <t xml:space="preserve">Initial graph: reified model diameter </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>blue</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - good,  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>red</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> comparatively bad</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -297,7 +341,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -454,11 +498,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -510,7 +565,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -521,6 +575,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -838,7 +894,7 @@
   <dimension ref="B5:J54"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36:F49"/>
+      <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1446,7 +1502,7 @@
       <c r="C37" s="19">
         <v>29</v>
       </c>
-      <c r="D37" s="37">
+      <c r="D37" s="36">
         <v>14</v>
       </c>
       <c r="E37" s="19">
@@ -1472,10 +1528,10 @@
       <c r="C38" s="2">
         <v>12</v>
       </c>
-      <c r="D38" s="38">
+      <c r="D38" s="37">
         <v>8</v>
       </c>
-      <c r="E38" s="38">
+      <c r="E38" s="37">
         <v>7</v>
       </c>
       <c r="F38" s="9">
@@ -1496,10 +1552,10 @@
       <c r="C39" s="2">
         <v>15</v>
       </c>
-      <c r="D39" s="38">
+      <c r="D39" s="37">
         <v>9</v>
       </c>
-      <c r="E39" s="38">
+      <c r="E39" s="37">
         <v>7</v>
       </c>
       <c r="F39" s="9">
@@ -1517,16 +1573,16 @@
       <c r="B40" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="C40" s="34">
+      <c r="C40" s="33">
         <v>57</v>
       </c>
-      <c r="D40" s="35">
+      <c r="D40" s="34">
         <v>31</v>
       </c>
-      <c r="E40" s="35">
+      <c r="E40" s="34">
         <v>35</v>
       </c>
-      <c r="F40" s="40">
+      <c r="F40" s="39">
         <v>54</v>
       </c>
       <c r="H40" s="3" t="s">
@@ -1541,16 +1597,16 @@
       <c r="B41" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="C41" s="32">
+      <c r="C41" s="31">
         <v>46</v>
       </c>
-      <c r="D41" s="32">
+      <c r="D41" s="31">
         <v>23</v>
       </c>
-      <c r="E41" s="32">
+      <c r="E41" s="31">
         <v>35</v>
       </c>
-      <c r="F41" s="33">
+      <c r="F41" s="32">
         <v>54</v>
       </c>
     </row>
@@ -1561,7 +1617,7 @@
       <c r="C42" s="13">
         <v>3</v>
       </c>
-      <c r="D42" s="36">
+      <c r="D42" s="35">
         <v>2</v>
       </c>
       <c r="E42" s="13">
@@ -1581,7 +1637,7 @@
       <c r="C43" s="19">
         <v>4</v>
       </c>
-      <c r="D43" s="37">
+      <c r="D43" s="36">
         <v>3</v>
       </c>
       <c r="E43" s="19">
@@ -1598,16 +1654,16 @@
       <c r="B44" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="C44" s="39">
-        <v>6</v>
-      </c>
-      <c r="D44" s="38">
+      <c r="C44" s="38">
+        <v>6</v>
+      </c>
+      <c r="D44" s="37">
         <v>4</v>
       </c>
       <c r="E44" s="2">
         <v>5</v>
       </c>
-      <c r="F44" s="41">
+      <c r="F44" s="40">
         <v>6</v>
       </c>
       <c r="H44" s="5"/>
@@ -1618,10 +1674,10 @@
       <c r="B45" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="C45" s="36">
+      <c r="C45" s="35">
         <v>1</v>
       </c>
-      <c r="D45" s="36">
+      <c r="D45" s="35">
         <v>1</v>
       </c>
       <c r="E45" s="13">
@@ -1651,7 +1707,7 @@
         <f>"- the current state"</f>
         <v>- the current state</v>
       </c>
-      <c r="C47" s="39">
+      <c r="C47" s="38">
         <v>9</v>
       </c>
       <c r="D47" s="2">
@@ -1672,7 +1728,7 @@
         <f>"- state at a specific time"</f>
         <v>- state at a specific time</v>
       </c>
-      <c r="C48" s="39">
+      <c r="C48" s="38">
         <v>9</v>
       </c>
       <c r="D48" s="2">
@@ -1696,10 +1752,10 @@
       <c r="C49" s="3">
         <v>6</v>
       </c>
-      <c r="D49" s="35">
+      <c r="D49" s="34">
         <v>3</v>
       </c>
-      <c r="E49" s="35">
+      <c r="E49" s="34">
         <v>4</v>
       </c>
       <c r="F49" s="11">
@@ -1710,11 +1766,13 @@
       <c r="J49" s="3"/>
     </row>
     <row r="50" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B50" s="31"/>
-      <c r="C50" s="31"/>
-      <c r="D50" s="31"/>
-      <c r="E50" s="31"/>
-      <c r="F50" s="31"/>
+      <c r="B50" s="41" t="s">
+        <v>67</v>
+      </c>
+      <c r="C50" s="42"/>
+      <c r="D50" s="42"/>
+      <c r="E50" s="42"/>
+      <c r="F50" s="12"/>
     </row>
     <row r="51" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="52" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.45"/>

--- a/Extra/QueryComparisons.xlsx
+++ b/Extra/QueryComparisons.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jyrki\Documents\GitHub\LDAC2022_Dataset\Extra\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CB84B3A-FEAB-49DA-8258-5E550D294730}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CB28C54-F009-43CD-8B99-28CD683D3CEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="43080" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{814C8306-D283-4CA1-964E-4283804CA8D7}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="72">
   <si>
     <t>Events</t>
   </si>
@@ -280,6 +280,18 @@
       </rPr>
       <t xml:space="preserve"> comparatively bad</t>
     </r>
+  </si>
+  <si>
+    <t>Final graph: The number of connected sub-graphs in Jena Model</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Initial graph: model diameter </t>
+  </si>
+  <si>
+    <t>Final graph: model diameter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Max. steps to a leaf. </t>
   </si>
 </sst>
 </file>
@@ -891,10 +903,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E301BC51-C7D2-4337-AAD2-5DE1E86EF203}">
-  <dimension ref="B5:J54"/>
+  <dimension ref="B5:J70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="B55" sqref="B55"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="B56" sqref="B56:F70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1778,6 +1790,238 @@
     <row r="52" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="53" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="54" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="56" spans="2:10" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="B56" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C56" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="D56" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="E56" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="F56" s="16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="57" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B57" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="C57" s="19">
+        <v>29</v>
+      </c>
+      <c r="D57" s="36">
+        <v>14</v>
+      </c>
+      <c r="E57" s="19">
+        <v>21</v>
+      </c>
+      <c r="F57" s="20">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="58" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B58" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="C58" s="2">
+        <v>12</v>
+      </c>
+      <c r="D58" s="37">
+        <v>8</v>
+      </c>
+      <c r="E58" s="37">
+        <v>7</v>
+      </c>
+      <c r="F58" s="9">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="59" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B59" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="C59" s="2">
+        <v>15</v>
+      </c>
+      <c r="D59" s="37">
+        <v>9</v>
+      </c>
+      <c r="E59" s="37">
+        <v>7</v>
+      </c>
+      <c r="F59" s="9">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="60" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B60" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="C60" s="33">
+        <v>57</v>
+      </c>
+      <c r="D60" s="34">
+        <v>31</v>
+      </c>
+      <c r="E60" s="34">
+        <v>35</v>
+      </c>
+      <c r="F60" s="39">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="61" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B61" s="25"/>
+      <c r="C61" s="31"/>
+      <c r="D61" s="31"/>
+      <c r="E61" s="31"/>
+      <c r="F61" s="32"/>
+    </row>
+    <row r="62" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B62" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="C62" s="13">
+        <v>3</v>
+      </c>
+      <c r="D62" s="35">
+        <v>2</v>
+      </c>
+      <c r="E62" s="13">
+        <v>3</v>
+      </c>
+      <c r="F62" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B63" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="C63" s="19">
+        <v>4</v>
+      </c>
+      <c r="D63" s="36">
+        <v>3</v>
+      </c>
+      <c r="E63" s="19">
+        <v>4</v>
+      </c>
+      <c r="F63" s="20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B64" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C64" s="38">
+        <v>6</v>
+      </c>
+      <c r="D64" s="37">
+        <v>4</v>
+      </c>
+      <c r="E64" s="2">
+        <v>5</v>
+      </c>
+      <c r="F64" s="40">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65" spans="2:6" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="B65" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="C65" s="35">
+        <v>1</v>
+      </c>
+      <c r="D65" s="35">
+        <v>1</v>
+      </c>
+      <c r="E65" s="13">
+        <v>23</v>
+      </c>
+      <c r="F65" s="12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B66" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="C66" s="19"/>
+      <c r="D66" s="19"/>
+      <c r="E66" s="19"/>
+      <c r="F66" s="20"/>
+    </row>
+    <row r="67" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B67" s="8" t="str">
+        <f>"- the current state"</f>
+        <v>- the current state</v>
+      </c>
+      <c r="C67" s="38">
+        <v>9</v>
+      </c>
+      <c r="D67" s="2">
+        <v>6</v>
+      </c>
+      <c r="E67" s="2">
+        <v>6</v>
+      </c>
+      <c r="F67" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B68" s="8" t="str">
+        <f>"- state at a specific time"</f>
+        <v>- state at a specific time</v>
+      </c>
+      <c r="C68" s="38">
+        <v>9</v>
+      </c>
+      <c r="D68" s="2">
+        <v>6</v>
+      </c>
+      <c r="E68" s="2">
+        <v>6</v>
+      </c>
+      <c r="F68" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B69" s="10" t="str">
+        <f>"- state at initial time"</f>
+        <v>- state at initial time</v>
+      </c>
+      <c r="C69" s="3">
+        <v>6</v>
+      </c>
+      <c r="D69" s="34">
+        <v>3</v>
+      </c>
+      <c r="E69" s="34">
+        <v>4</v>
+      </c>
+      <c r="F69" s="11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B70" s="41" t="s">
+        <v>67</v>
+      </c>
+      <c r="C70" s="42"/>
+      <c r="D70" s="42"/>
+      <c r="E70" s="42"/>
+      <c r="F70" s="12"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
